--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_2_a.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_2_a.xlsx
@@ -44,7 +44,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Jessica, you’ve probably noticed that we need to designate a direction when deploying an Operator.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Jessica, you've probably noticed that we need to designate a direction when deploying an Operator.
 </t>
   </si>
   <si>
